--- a/theory/Kinematics.xlsx
+++ b/theory/Kinematics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ondine\theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EBA42A2-27CC-4B01-9A49-B6A38132E091}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D0896-7041-4FB9-A604-C4B96EE610B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="18910" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="18908" windowHeight="7808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematix" sheetId="1" r:id="rId1"/>
@@ -260,11 +260,11 @@
     <numFmt numFmtId="177" formatCode="0.00000"/>
     <numFmt numFmtId="178" formatCode="0.0000000"/>
     <numFmt numFmtId="179" formatCode="0.000\ &quot;mm&quot;"/>
-    <numFmt numFmtId="180" formatCode="0\ &quot;rpm&quot;"/>
     <numFmt numFmtId="181" formatCode="0.0%"/>
     <numFmt numFmtId="182" formatCode="0.000000000000"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="0.00000\ &quot;1/s&quot;"/>
+    <numFmt numFmtId="189" formatCode="0.000\ &quot;rev/s&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -531,8 +531,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -548,6 +546,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -14411,8 +14411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4830763" y="1568450"/>
-          <a:ext cx="3031330" cy="2147094"/>
+          <a:off x="4872038" y="1543050"/>
+          <a:ext cx="3069430" cy="2121694"/>
           <a:chOff x="251520" y="764704"/>
           <a:chExt cx="6192688" cy="5088580"/>
         </a:xfrm>
@@ -19291,25 +19291,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="9">
         <v>90</v>
@@ -19337,7 +19337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="9">
         <v>35</v>
@@ -19346,7 +19346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
@@ -19357,8 +19357,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>26</v>
       </c>
@@ -19366,7 +19366,7 @@
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
       <c r="B17" s="41">
         <v>1000</v>
@@ -19380,7 +19380,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="20"/>
       <c r="B18" s="41">
         <v>1000</v>
@@ -19390,7 +19390,7 @@
       </c>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="20"/>
       <c r="B19" s="41">
         <v>50</v>
@@ -19400,7 +19400,7 @@
       </c>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="20"/>
       <c r="B20" s="41">
         <v>0</v>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="24"/>
       <c r="B21" s="32">
         <v>10</v>
@@ -19420,13 +19420,13 @@
       </c>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="39"/>
       <c r="B22" s="41"/>
       <c r="C22" s="22"/>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
@@ -19434,7 +19434,7 @@
       <c r="C23" s="45"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="55" t="s">
         <v>30</v>
       </c>
@@ -19447,7 +19447,7 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="20"/>
       <c r="B25" s="59">
         <v>48</v>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="24"/>
       <c r="B26" s="60">
         <f>B19*B90+B20*D90</f>
@@ -19468,8 +19468,8 @@
       </c>
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
@@ -19488,10 +19488,10 @@
       </c>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A29" s="30"/>
       <c r="B29" s="51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>3</v>
@@ -19500,24 +19500,24 @@
       <c r="G29" s="20"/>
       <c r="H29" s="21">
         <f>DEGREES(G67*B29+H67*B30+I67*RADIANS(B31))</f>
-        <v>-11.575495493448507</v>
-      </c>
-      <c r="I29" s="64">
-        <f>H29/360*60</f>
-        <v>-1.9292492489080846</v>
+        <v>-1.1575495493448507</v>
+      </c>
+      <c r="I29" s="77">
+        <f>H29/360</f>
+        <v>-3.2154154148468072E-3</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="23"/>
-      <c r="L29" s="77"/>
+      <c r="L29" s="75"/>
       <c r="N29" s="20"/>
       <c r="O29" s="33">
         <f>RADIANS(G80*H29+H80*H30+I80*H31)</f>
-        <v>10.000000000000002</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A30" s="30"/>
       <c r="B30" s="51">
         <v>0</v>
@@ -19530,24 +19530,24 @@
       <c r="G30" s="20"/>
       <c r="H30" s="21">
         <f>DEGREES(G68*B29+H68*B30+I68*RADIANS(B31))</f>
-        <v>5.7877477467242535</v>
-      </c>
-      <c r="I30" s="64">
-        <f>H30/360*60</f>
-        <v>0.96462462445404229</v>
+        <v>0.57877477467242533</v>
+      </c>
+      <c r="I30" s="77">
+        <f>H30/360</f>
+        <v>1.6077077074234036E-3</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="23"/>
-      <c r="L30" s="77"/>
+      <c r="L30" s="75"/>
       <c r="N30" s="20"/>
       <c r="O30" s="33">
         <f>RADIANS((G81*H29+H81*H30+I81*H31))</f>
-        <v>1.4881572258170164E-15</v>
+        <v>1.2401310215141802E-16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="31"/>
       <c r="B31" s="32">
         <v>0</v>
@@ -19559,24 +19559,24 @@
       <c r="G31" s="24"/>
       <c r="H31" s="25">
         <f>DEGREES(G69*B29+H69*B30+I69*RADIANS(B31))</f>
-        <v>5.7877477467242535</v>
-      </c>
-      <c r="I31" s="65">
-        <f>H31/360*60</f>
-        <v>0.96462462445404229</v>
+        <v>0.57877477467242533</v>
+      </c>
+      <c r="I31" s="78">
+        <f>H31/360</f>
+        <v>1.6077077074234036E-3</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="27"/>
-      <c r="L31" s="77"/>
+      <c r="L31" s="75"/>
       <c r="N31" s="24"/>
       <c r="O31" s="34">
         <f>(K82*H29+L82*H30+M82*H31)/B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="40"/>
       <c r="B32" s="42"/>
       <c r="C32" s="22"/>
@@ -19589,7 +19589,7 @@
       <c r="M32" s="39"/>
       <c r="N32" s="42"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="17" t="s">
         <v>24</v>
       </c>
@@ -19604,7 +19604,7 @@
       <c r="M33" s="39"/>
       <c r="N33" s="42"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="46"/>
       <c r="B34" s="41">
         <f>B17+B19</f>
@@ -19622,7 +19622,7 @@
       <c r="M34" s="39"/>
       <c r="N34" s="42"/>
     </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="47"/>
       <c r="B35" s="48">
         <f>B18+B20</f>
@@ -19640,7 +19640,7 @@
       <c r="M35" s="39"/>
       <c r="N35" s="42"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A36" s="40"/>
       <c r="B36" s="42"/>
       <c r="C36" s="22"/>
@@ -19653,17 +19653,17 @@
       <c r="M36" s="39"/>
       <c r="N36" s="42"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="36"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A39" s="30"/>
       <c r="B39" s="37">
         <v>0</v>
@@ -19683,7 +19683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="31"/>
       <c r="B40" s="38">
         <v>0</v>
@@ -19703,26 +19703,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="F43" s="74">
+      <c r="F43" s="72">
         <v>0</v>
       </c>
-      <c r="G43" s="75">
+      <c r="G43" s="73">
         <f>-1/(B13)*COS(RADIANS(B11))</f>
         <v>-2.0203050891044214E-2</v>
       </c>
-      <c r="H43" s="76">
+      <c r="H43" s="74">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
         <v>2.0203050891044214E-2</v>
       </c>
-      <c r="N43" s="74">
+      <c r="N43" s="72">
         <f t="array" ref="N43:P45">MINVERSE(F43:H45)</f>
         <v>6.3454531257157525E-15</v>
       </c>
@@ -19733,19 +19733,19 @@
         <v>-28.577380332470412</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="74">
+      <c r="F44" s="72">
         <f>1/(B13)*SQRT(3)/2*COS(RADIANS(B11))</f>
         <v>1.7496355305594128E-2</v>
       </c>
-      <c r="G44" s="75">
+      <c r="G44" s="73">
         <f>1/(B13)*COS(RADIANS(B11))/2</f>
         <v>1.0101525445522107E-2</v>
       </c>
-      <c r="H44" s="76">
+      <c r="H44" s="74">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
         <v>2.0203050891044214E-2</v>
       </c>
@@ -19763,16 +19763,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F45" s="74">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F45" s="72">
         <f>-1/(B13)*SQRT(3)/2*COS(RADIANS(B11))</f>
         <v>-1.7496355305594128E-2</v>
       </c>
-      <c r="G45" s="75">
+      <c r="G45" s="73">
         <f>1/(B13)*COS(RADIANS(B11))/2</f>
         <v>1.0101525445522107E-2</v>
       </c>
-      <c r="H45" s="76">
+      <c r="H45" s="74">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
         <v>2.0203050891044214E-2</v>
       </c>
@@ -19786,14 +19786,14 @@
         <v>16.49915822768611</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F48" s="70">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F48" s="68">
         <v>0</v>
       </c>
-      <c r="G48" s="71">
+      <c r="G48" s="69">
         <v>-1</v>
       </c>
-      <c r="H48" s="72">
+      <c r="H48" s="70">
         <v>0</v>
       </c>
       <c r="N48" s="61">
@@ -19807,17 +19807,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="70">
+      <c r="F49" s="68">
         <v>1</v>
       </c>
-      <c r="G49" s="71">
+      <c r="G49" s="69">
         <v>0</v>
       </c>
-      <c r="H49" s="72">
+      <c r="H49" s="70">
         <v>0</v>
       </c>
       <c r="N49" s="61">
@@ -19830,14 +19830,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F50" s="70">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F50" s="68">
         <v>0</v>
       </c>
-      <c r="G50" s="71">
+      <c r="G50" s="69">
         <v>0</v>
       </c>
-      <c r="H50" s="72">
+      <c r="H50" s="70">
         <f>-B12</f>
         <v>-90</v>
       </c>
@@ -19851,12 +19851,12 @@
         <v>-1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -19864,23 +19864,23 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="J54" s="74">
+      <c r="J54" s="72">
         <f>F40</f>
         <v>1</v>
       </c>
-      <c r="K54" s="75">
+      <c r="K54" s="73">
         <v>0</v>
       </c>
-      <c r="L54" s="76">
+      <c r="L54" s="74">
         <f>D40</f>
         <v>0</v>
       </c>
@@ -19895,19 +19895,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="J55" s="74">
+      <c r="J55" s="72">
         <f>D39*D40</f>
         <v>0</v>
       </c>
-      <c r="K55" s="75">
+      <c r="K55" s="73">
         <f>F39</f>
         <v>1</v>
       </c>
-      <c r="L55" s="76">
+      <c r="L55" s="74">
         <f>-D39*F40</f>
         <v>0</v>
       </c>
@@ -19921,17 +19921,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="I56" s="7"/>
-      <c r="J56" s="74">
+      <c r="J56" s="72">
         <f>-F39*D40</f>
         <v>0</v>
       </c>
-      <c r="K56" s="75">
+      <c r="K56" s="73">
         <f>D39</f>
         <v>0</v>
       </c>
-      <c r="L56" s="76">
+      <c r="L56" s="74">
         <f>F39*F40</f>
         <v>1</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -19954,7 +19954,7 @@
       <c r="K57" s="7"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -19962,20 +19962,20 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G62" s="74">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G62" s="72">
         <f t="array" ref="G62:I64">MMULT(F43:H45,N54:P56)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="75">
+      <c r="H62" s="73">
         <v>-2.0203050891044214E-2</v>
       </c>
-      <c r="I62" s="76">
+      <c r="I62" s="74">
         <v>2.0203050891044214E-2</v>
       </c>
       <c r="K62" s="7">
@@ -19991,18 +19991,18 @@
         <v>2.0203050891044214E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C63" s="11"/>
       <c r="F63" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="74">
+      <c r="G63" s="72">
         <v>1.7496355305594128E-2</v>
       </c>
-      <c r="H63" s="75">
+      <c r="H63" s="73">
         <v>1.0101525445522107E-2</v>
       </c>
-      <c r="I63" s="76">
+      <c r="I63" s="74">
         <v>2.0203050891044214E-2</v>
       </c>
       <c r="K63" s="7">
@@ -20018,14 +20018,14 @@
         <v>2.0203050891044214E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G64" s="74">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G64" s="72">
         <v>-1.7496355305594128E-2</v>
       </c>
-      <c r="H64" s="75">
+      <c r="H64" s="73">
         <v>1.0101525445522107E-2</v>
       </c>
-      <c r="I64" s="76">
+      <c r="I64" s="74">
         <v>2.0203050891044214E-2</v>
       </c>
       <c r="K64" s="7">
@@ -20041,12 +20041,12 @@
         <v>2.0203050891044214E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K66" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="8"/>
       <c r="G67" s="61">
         <f t="array" ref="G67:I69">MMULT(G62:I64,F48:H50)</f>
@@ -20071,7 +20071,7 @@
         <v>-1.8182745801939793</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F68" s="14" t="s">
         <v>2</v>
       </c>
@@ -20097,7 +20097,7 @@
         <v>-1.8182745801939793</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G69" s="61">
         <v>1.0101525445522107E-2</v>
       </c>
@@ -20120,15 +20120,15 @@
         <v>-1.8182745801939793</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="K71" s="16"/>
-      <c r="L71" s="73"/>
+      <c r="L71" s="71"/>
       <c r="M71" s="16"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -20136,7 +20136,7 @@
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -20144,15 +20144,15 @@
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G75" s="74">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G75" s="72">
         <f t="array" ref="G75:I77">MMULT(N48:P50,J54:L56)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="75">
+      <c r="H75" s="73">
         <v>1</v>
       </c>
-      <c r="I75" s="76">
+      <c r="I75" s="74">
         <v>0</v>
       </c>
       <c r="K75" s="7">
@@ -20168,14 +20168,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G76" s="74">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G76" s="72">
         <v>-1</v>
       </c>
-      <c r="H76" s="75">
+      <c r="H76" s="73">
         <v>0</v>
       </c>
-      <c r="I76" s="76">
+      <c r="I76" s="74">
         <v>0</v>
       </c>
       <c r="K76" s="7">
@@ -20191,14 +20191,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G77" s="74">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G77" s="72">
         <v>0</v>
       </c>
-      <c r="H77" s="75">
+      <c r="H77" s="73">
         <v>0</v>
       </c>
-      <c r="I77" s="76">
+      <c r="I77" s="74">
         <v>-1.1111111111111112E-2</v>
       </c>
       <c r="K77" s="7">
@@ -20214,7 +20214,7 @@
         <v>-1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="8" t="s">
         <v>11</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G80" s="61">
         <f t="array" ref="G80:I82">MMULT(G75:I77,N43:P45)</f>
         <v>-32.998316455372226</v>
@@ -20246,7 +20246,7 @@
         <v>16.49915822768611</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G81" s="61">
         <v>-6.3454531257157525E-15</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>28.577380332470412</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G82" s="61">
         <v>-0.18332398030762345</v>
       </c>
@@ -20292,24 +20292,24 @@
         <v>-16.49915822768611</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D87" s="59">
         <f>B19*D90-B20*B90</f>
         <v>49.999923845664384</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D88" s="59">
         <f>B19*B90+B20*D90</f>
         <v>8.7266418294915438E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="15" t="s">
         <v>13</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>0.99999847691328769</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -20345,13 +20345,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="23" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="23" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20448,108 +20448,108 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="69">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" s="67">
         <f>SIN(RADIANS(A2))</f>
         <v>0</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="67">
         <f>SIN(RADIANS(B2))</f>
         <v>6.9756473744125302E-2</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="67">
         <f t="shared" ref="C3:W3" si="1">SIN(RADIANS(C2))</f>
         <v>0.13917310096006544</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="67">
         <f t="shared" si="1"/>
         <v>0.20791169081775934</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="67">
         <f t="shared" si="1"/>
         <v>0.27563735581699916</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="67">
         <f t="shared" si="1"/>
         <v>0.34202014332566871</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="67">
         <f t="shared" si="1"/>
         <v>0.40673664307580021</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="67">
         <f t="shared" si="1"/>
         <v>0.46947156278589081</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="67">
         <f t="shared" si="1"/>
         <v>0.5299192642332049</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="67">
         <f t="shared" si="1"/>
         <v>0.58778525229247314</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="67">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="67">
         <f t="shared" si="1"/>
         <v>0.69465837045899725</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="67">
         <f t="shared" si="1"/>
         <v>0.74314482547739424</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="67">
         <f t="shared" si="1"/>
         <v>0.78801075360672201</v>
       </c>
-      <c r="O3" s="69">
+      <c r="O3" s="67">
         <f t="shared" si="1"/>
         <v>0.82903757255504174</v>
       </c>
-      <c r="P3" s="69">
+      <c r="P3" s="67">
         <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q3" s="67">
         <f t="shared" si="1"/>
         <v>0.89879404629916704</v>
       </c>
-      <c r="R3" s="69">
+      <c r="R3" s="67">
         <f t="shared" si="1"/>
         <v>0.92718385456678742</v>
       </c>
-      <c r="S3" s="69">
+      <c r="S3" s="67">
         <f t="shared" si="1"/>
         <v>0.95105651629515353</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="67">
         <f t="shared" si="1"/>
         <v>0.97029572627599647</v>
       </c>
-      <c r="U3" s="69">
+      <c r="U3" s="67">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="V3" s="69">
+      <c r="V3" s="67">
         <f t="shared" si="1"/>
         <v>0.99452189536827329</v>
       </c>
-      <c r="W3" s="69">
+      <c r="W3" s="67">
         <f t="shared" si="1"/>
         <v>0.99939082701909576</v>
       </c>
-      <c r="X3" s="69">
+      <c r="X3" s="67">
         <f>X4/(2^14)</f>
         <v>1.0006103515625</v>
       </c>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ref="A4:B4" si="2">INT(A3*(2^14))</f>
         <v>0</v>
@@ -20647,7 +20647,7 @@
         <v>16394</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>30</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>15360</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>7691</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>8682</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -20696,32 +20696,32 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="66">
         <f>INT(B9+B11*((B10-B9))/(2^11))</f>
         <v>8186</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <f>INT(SIN(RADIANS(A7))*(2^14))</f>
         <v>8192</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="65">
         <f>(B12-B13)/B13</f>
         <v>-7.32421875E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B14">
         <f>SIN(RADIANS(A7))</f>
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -20747,13 +20747,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <f>INT(B18*B18/(2^5))</f>
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>13107</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -20801,13 +20801,13 @@
         <v>14090</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D28">
         <f>INT((INT(D26/(2^7))*INT(D27/(2^7))) / (2^0))</f>
         <v>11220</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -20822,12 +20822,12 @@
         <f>INT(B29*(2^14))</f>
         <v>11272</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="64">
         <f>(D28-D29)/D29</f>
         <v>-4.6132008516678496E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -20857,13 +20857,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D33">
         <f>INT(D31*(2^4)/D32)</f>
         <v>2262</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -20892,89 +20892,89 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
@@ -20992,14 +20992,14 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L1">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>255</v>
       </c>
@@ -21014,7 +21014,7 @@
         <f t="shared" ref="D2:D11" si="0">(B2-$H$6)*($G$7-$G$6)/($H$7-$H$6)+$G$6</f>
         <v>255</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="76">
         <f t="shared" ref="E2:E26" si="1">(D2-A2)/A2</f>
         <v>0</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>137.83783783783784</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>245</v>
       </c>
@@ -21053,7 +21053,7 @@
         <f t="shared" si="0"/>
         <v>251.13259668508289</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="76">
         <f t="shared" si="1"/>
         <v>2.5031006877889339E-2</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>235</v>
       </c>
@@ -21101,7 +21101,7 @@
         <f t="shared" si="0"/>
         <v>247.26519337016575</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="76">
         <f t="shared" si="1"/>
         <v>5.2192312213471266E-2</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>333.72549019607845</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>225</v>
       </c>
@@ -21144,7 +21144,7 @@
         <f t="shared" si="0"/>
         <v>243.12154696132598</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="76">
         <f t="shared" si="1"/>
         <v>8.0540208717004333E-2</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>834.31372549019613</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>215</v>
       </c>
@@ -21186,7 +21186,7 @@
         <f t="shared" si="0"/>
         <v>238.97790055248618</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="76">
         <f t="shared" si="1"/>
         <v>0.11152511884877291</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>1102.7450980392157</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>205</v>
       </c>
@@ -21229,7 +21229,7 @@
         <f t="shared" si="0"/>
         <v>215.49723756906076</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="76">
         <f t="shared" si="1"/>
         <v>5.1206036922247601E-2</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>1284.1176470588234</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>195</v>
       </c>
@@ -21271,7 +21271,7 @@
         <f t="shared" si="0"/>
         <v>192.01657458563537</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="76">
         <f t="shared" si="1"/>
         <v>-1.5299617509562215E-2</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>1385.686274509804</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>185</v>
       </c>
@@ -21303,7 +21303,7 @@
         <f t="shared" si="0"/>
         <v>184.00552486187846</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="76">
         <f t="shared" si="1"/>
         <v>-5.375541287143481E-3</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>1465.4901960784314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>175</v>
       </c>
@@ -21334,7 +21334,7 @@
         <f t="shared" si="0"/>
         <v>175.99447513812154</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="76">
         <f t="shared" si="1"/>
         <v>5.6827150749802517E-3</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>1538.0392156862745</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>165</v>
       </c>
@@ -21366,7 +21366,7 @@
         <f t="shared" si="0"/>
         <v>165.49723756906079</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="76">
         <f t="shared" si="1"/>
         <v>3.0135610246108256E-3</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>1596.0784313725489</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>155</v>
       </c>
@@ -21397,7 +21397,7 @@
         <f t="shared" ref="D12:D17" si="6">(B12-$H$5)*($G$6-$G$5)/($H$6-$H$5)+$G$5</f>
         <v>155</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>1632.3529411764705</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>A12-10</f>
         <v>145</v>
@@ -21430,7 +21430,7 @@
         <f t="shared" si="6"/>
         <v>147.57731958762886</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="76">
         <f t="shared" si="1"/>
         <v>1.7774617845716302E-2</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>1675.8823529411766</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" ref="A14:A24" si="7">A13-10</f>
         <v>135</v>
@@ -21462,7 +21462,7 @@
         <f t="shared" si="6"/>
         <v>140.15463917525773</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="76">
         <f t="shared" si="1"/>
         <v>3.8182512409316506E-2</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>1712.1568627450981</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="7"/>
         <v>125</v>
@@ -21495,7 +21495,7 @@
         <f t="shared" si="6"/>
         <v>130.25773195876289</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="76">
         <f t="shared" si="1"/>
         <v>4.2061855670103114E-2</v>
       </c>
@@ -21511,7 +21511,7 @@
         <v>1733.9215686274511</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -21527,7 +21527,7 @@
         <f t="shared" si="6"/>
         <v>120.36082474226804</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="76">
         <f t="shared" si="1"/>
         <v>4.661586732406988E-2</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>1777.4509803921569</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -21560,7 +21560,7 @@
         <f t="shared" si="6"/>
         <v>107.68041237113403</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="76">
         <f t="shared" si="1"/>
         <v>2.5527736867943098E-2</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>1799.2156862745098</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -21592,7 +21592,7 @@
         <f>(B18-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>95</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>1828.2352941176471</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -21624,7 +21624,7 @@
         <f>(B19-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>87.802768166089976</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="76">
         <f t="shared" si="1"/>
         <v>3.2973743130470308E-2</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -21656,12 +21656,12 @@
         <f>(B20-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>79.913494809688586</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="76">
         <f t="shared" si="1"/>
         <v>6.5513264129181153E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="7"/>
         <v>65</v>
@@ -21677,12 +21677,12 @@
         <f>(B21-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>69.809688581314873</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="76">
         <f t="shared" si="1"/>
         <v>7.3995208943305746E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="7"/>
         <v>55</v>
@@ -21698,12 +21698,12 @@
         <f>(B22-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>55</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -21719,12 +21719,12 @@
         <f>(B23-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>48.127490039840637</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="76">
         <f t="shared" si="1"/>
         <v>6.9499778663125275E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="7"/>
         <v>35</v>
@@ -21740,12 +21740,12 @@
         <f>(B24-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>38.625498007968126</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="76">
         <f t="shared" si="1"/>
         <v>0.10358565737051789</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>25</v>
       </c>
@@ -21760,12 +21760,12 @@
         <f>(B25-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>25</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>15</v>
       </c>
@@ -21780,12 +21780,12 @@
         <f t="shared" ref="D26" si="8">(B26-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>14.098214285714285</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="76">
         <f t="shared" si="1"/>
         <v>-6.011904761904769E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>10</v>
       </c>
@@ -21800,7 +21800,7 @@
         <f t="shared" ref="D27" si="9">(B27-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>10</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="76">
         <f>(D27-A27)/A27</f>
         <v>0</v>
       </c>

--- a/theory/Kinematics.xlsx
+++ b/theory/Kinematics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ondine\theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D0896-7041-4FB9-A604-C4B96EE610B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D718350-B824-4B75-85B1-EE6638B6E21D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="18908" windowHeight="7808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,29 +242,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="22">
+  <numFmts count="21">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0\ \°"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0\ &quot;mm/s&quot;"/>
     <numFmt numFmtId="168" formatCode="0.0\ &quot;°/s&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.0\ &quot;mm&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00\ &quot;1/mm&quot;"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.00000\ &quot;°/s&quot;"/>
     <numFmt numFmtId="173" formatCode="0\ &quot;mm&quot;"/>
     <numFmt numFmtId="174" formatCode="0.00\ &quot;s&quot;"/>
-    <numFmt numFmtId="175" formatCode="0\ &quot;mm/s&quot;"/>
     <numFmt numFmtId="176" formatCode="0.000\ \°"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
     <numFmt numFmtId="178" formatCode="0.0000000"/>
     <numFmt numFmtId="179" formatCode="0.000\ &quot;mm&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="0.000000000000"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="0.00000\ &quot;1/s&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.000\ &quot;rev/s&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="0.000000000000"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="0.00000\ &quot;1/s&quot;"/>
+    <numFmt numFmtId="184" formatCode="0.000\ &quot;rev/s&quot;"/>
+    <numFmt numFmtId="187" formatCode="0.000\ &quot;m&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.000\ &quot;m/s&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -460,7 +459,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -492,7 +490,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -512,7 +509,6 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -531,23 +527,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -19292,7 +19291,7 @@
   <dimension ref="A3:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19324,358 +19323,358 @@
       <c r="B11" s="2">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="9">
-        <v>90</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="76">
+        <v>0.09</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="9">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="76">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="47">
         <v>0.01</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
-      <c r="B17" s="41">
+      <c r="A17" s="19"/>
+      <c r="B17" s="39">
         <v>1000</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" s="20"/>
-      <c r="B18" s="41">
+      <c r="A18" s="19"/>
+      <c r="B18" s="39">
         <v>1000</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="20"/>
-      <c r="B19" s="41">
+      <c r="A19" s="19"/>
+      <c r="B19" s="39">
         <v>50</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="20"/>
-      <c r="B20" s="41">
+      <c r="A20" s="19"/>
+      <c r="B20" s="39">
         <v>0</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="32">
+      <c r="A21" s="23"/>
+      <c r="B21" s="31">
         <v>10</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="53">
         <f>B21*B14</f>
         <v>0.1</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="20"/>
-      <c r="B25" s="59">
+      <c r="A25" s="19"/>
+      <c r="B25" s="56">
         <v>48</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="24"/>
-      <c r="B26" s="60">
+      <c r="A26" s="23"/>
+      <c r="B26" s="57">
         <f>B19*B90+B20*D90</f>
         <v>8.7266418294915438E-2</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="19"/>
-      <c r="G28" s="50" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="18"/>
+      <c r="G28" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="N28" s="50" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="N28" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A29" s="30"/>
-      <c r="B29" s="51">
-        <v>1</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="77">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21">
+      <c r="D29" s="22"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20">
         <f>DEGREES(G67*B29+H67*B30+I67*RADIANS(B31))</f>
         <v>-1.1575495493448507</v>
       </c>
-      <c r="I29" s="77">
+      <c r="I29" s="74">
         <f>H29/360</f>
         <v>-3.2154154148468072E-3</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="75"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="33">
+      <c r="K29" s="22"/>
+      <c r="L29" s="72"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="78">
         <f>RADIANS(G80*H29+H80*H30+I80*H31)</f>
-        <v>1.0000000000000002</v>
+        <v>1.0000000000000002E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A30" s="30"/>
-      <c r="B30" s="51">
+      <c r="A30" s="29"/>
+      <c r="B30" s="77">
         <v>0</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="22"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21">
+      <c r="G30" s="19"/>
+      <c r="H30" s="20">
         <f>DEGREES(G68*B29+H68*B30+I68*RADIANS(B31))</f>
         <v>0.57877477467242533</v>
       </c>
-      <c r="I30" s="77">
+      <c r="I30" s="74">
         <f>H30/360</f>
         <v>1.6077077074234036E-3</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="75"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="33">
+      <c r="K30" s="22"/>
+      <c r="L30" s="72"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="78">
         <f>RADIANS((G81*H29+H81*H30+I81*H31))</f>
-        <v>1.2401310215141802E-16</v>
+        <v>6.0553272534872081E-20</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31">
         <v>0</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25">
+      <c r="D31" s="26"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24">
         <f>DEGREES(G69*B29+H69*B30+I69*RADIANS(B31))</f>
         <v>0.57877477467242533</v>
       </c>
-      <c r="I31" s="78">
+      <c r="I31" s="75">
         <f>H31/360</f>
         <v>1.6077077074234036E-3</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="75"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="34">
+      <c r="K31" s="26"/>
+      <c r="L31" s="72"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="32">
         <f>(K82*H29+L82*H30+M82*H31)/B12</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="13"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="42"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="12"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="19"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="13"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="18"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="12"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A34" s="46"/>
-      <c r="B34" s="41">
+      <c r="A34" s="44"/>
+      <c r="B34" s="39">
         <f>B17+B19</f>
         <v>1050</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="13"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="42"/>
+      <c r="D34" s="22"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="12"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46">
         <f>B18+B20</f>
         <v>1000</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="13"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="42"/>
+      <c r="D35" s="26"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="12"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A36" s="40"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="13"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="42"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="12"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:17" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A39" s="30"/>
-      <c r="B39" s="37">
+      <c r="A39" s="29"/>
+      <c r="B39" s="35">
         <v>0</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="7">
         <f>SIN(RADIANS(B39))</f>
         <v>0</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="7">
@@ -19684,18 +19683,18 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="31"/>
-      <c r="B40" s="38">
+      <c r="A40" s="30"/>
+      <c r="B40" s="36">
         <v>0</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="7">
         <f>SIN(RADIANS(B40))</f>
         <v>0</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="7">
@@ -19711,99 +19710,99 @@
         <v>48</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="F43" s="72">
+      <c r="F43" s="69">
         <v>0</v>
       </c>
-      <c r="G43" s="73">
+      <c r="G43" s="70">
         <f>-1/(B13)*COS(RADIANS(B11))</f>
-        <v>-2.0203050891044214E-2</v>
-      </c>
-      <c r="H43" s="74">
+        <v>-20.203050891044214</v>
+      </c>
+      <c r="H43" s="71">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
-        <v>2.0203050891044214E-2</v>
-      </c>
-      <c r="N43" s="72">
+        <v>20.20305089104421</v>
+      </c>
+      <c r="N43" s="69">
         <f t="array" ref="N43:P45">MINVERSE(F43:H45)</f>
-        <v>6.3454531257157525E-15</v>
-      </c>
-      <c r="O43" s="62">
-        <v>28.577380332470412</v>
-      </c>
-      <c r="P43" s="63">
-        <v>-28.577380332470412</v>
+        <v>3.1727265628578762E-18</v>
+      </c>
+      <c r="O43" s="59">
+        <v>2.8577380332470412E-2</v>
+      </c>
+      <c r="P43" s="60">
+        <v>-2.8577380332470412E-2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="72">
+      <c r="F44" s="69">
         <f>1/(B13)*SQRT(3)/2*COS(RADIANS(B11))</f>
-        <v>1.7496355305594128E-2</v>
-      </c>
-      <c r="G44" s="73">
+        <v>17.496355305594129</v>
+      </c>
+      <c r="G44" s="70">
         <f>1/(B13)*COS(RADIANS(B11))/2</f>
-        <v>1.0101525445522107E-2</v>
-      </c>
-      <c r="H44" s="74">
+        <v>10.101525445522107</v>
+      </c>
+      <c r="H44" s="71">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
-        <v>2.0203050891044214E-2</v>
+        <v>20.20305089104421</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="N44" s="61">
-        <v>-32.998316455372226</v>
-      </c>
-      <c r="O44" s="62">
-        <v>16.49915822768611</v>
-      </c>
-      <c r="P44" s="63">
-        <v>16.49915822768611</v>
+      <c r="N44" s="58">
+        <v>-3.2998316455372226E-2</v>
+      </c>
+      <c r="O44" s="59">
+        <v>1.6499158227686109E-2</v>
+      </c>
+      <c r="P44" s="60">
+        <v>1.6499158227686109E-2</v>
       </c>
       <c r="Q44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F45" s="72">
+      <c r="F45" s="69">
         <f>-1/(B13)*SQRT(3)/2*COS(RADIANS(B11))</f>
-        <v>-1.7496355305594128E-2</v>
-      </c>
-      <c r="G45" s="73">
+        <v>-17.496355305594129</v>
+      </c>
+      <c r="G45" s="70">
         <f>1/(B13)*COS(RADIANS(B11))/2</f>
-        <v>1.0101525445522107E-2</v>
-      </c>
-      <c r="H45" s="74">
+        <v>10.101525445522107</v>
+      </c>
+      <c r="H45" s="71">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
-        <v>2.0203050891044214E-2</v>
-      </c>
-      <c r="N45" s="61">
-        <v>16.49915822768611</v>
-      </c>
-      <c r="O45" s="62">
-        <v>16.49915822768611</v>
-      </c>
-      <c r="P45" s="63">
-        <v>16.49915822768611</v>
+        <v>20.20305089104421</v>
+      </c>
+      <c r="N45" s="58">
+        <v>1.6499158227686113E-2</v>
+      </c>
+      <c r="O45" s="59">
+        <v>1.6499158227686113E-2</v>
+      </c>
+      <c r="P45" s="60">
+        <v>1.6499158227686113E-2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F48" s="68">
+      <c r="F48" s="65">
         <v>0</v>
       </c>
-      <c r="G48" s="69">
+      <c r="G48" s="66">
         <v>-1</v>
       </c>
-      <c r="H48" s="70">
+      <c r="H48" s="67">
         <v>0</v>
       </c>
-      <c r="N48" s="61">
+      <c r="N48" s="58">
         <f t="array" ref="N48:P50">MINVERSE(F48:H50)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="62">
+      <c r="O48" s="59">
         <v>1</v>
       </c>
-      <c r="P48" s="63">
+      <c r="P48" s="60">
         <v>0</v>
       </c>
     </row>
@@ -19811,58 +19810,58 @@
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="68">
+      <c r="F49" s="65">
         <v>1</v>
       </c>
-      <c r="G49" s="69">
+      <c r="G49" s="66">
         <v>0</v>
       </c>
-      <c r="H49" s="70">
+      <c r="H49" s="67">
         <v>0</v>
       </c>
-      <c r="N49" s="61">
+      <c r="N49" s="58">
         <v>-1</v>
       </c>
-      <c r="O49" s="62">
+      <c r="O49" s="59">
         <v>0</v>
       </c>
-      <c r="P49" s="63">
+      <c r="P49" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F50" s="68">
+      <c r="F50" s="65">
         <v>0</v>
       </c>
-      <c r="G50" s="69">
+      <c r="G50" s="66">
         <v>0</v>
       </c>
-      <c r="H50" s="70">
+      <c r="H50" s="67">
         <f>-B12</f>
-        <v>-90</v>
-      </c>
-      <c r="N50" s="61">
+        <v>-0.09</v>
+      </c>
+      <c r="N50" s="58">
         <v>0</v>
       </c>
-      <c r="O50" s="62">
+      <c r="O50" s="59">
         <v>0</v>
       </c>
-      <c r="P50" s="63">
-        <v>-1.1111111111111112E-2</v>
+      <c r="P50" s="60">
+        <v>-11.111111111111111</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D53" s="6"/>
@@ -19873,25 +19872,25 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="J54" s="72">
+      <c r="J54" s="69">
         <f>F40</f>
         <v>1</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="70">
         <v>0</v>
       </c>
-      <c r="L54" s="74">
+      <c r="L54" s="71">
         <f>D40</f>
         <v>0</v>
       </c>
-      <c r="N54" s="61">
+      <c r="N54" s="58">
         <f t="array" ref="N54:P56">TRANSPOSE(J54:L56)</f>
         <v>1</v>
       </c>
-      <c r="O54" s="62">
+      <c r="O54" s="59">
         <v>0</v>
       </c>
-      <c r="P54" s="63">
+      <c r="P54" s="60">
         <v>0</v>
       </c>
     </row>
@@ -19899,49 +19898,49 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="J55" s="72">
+      <c r="J55" s="69">
         <f>D39*D40</f>
         <v>0</v>
       </c>
-      <c r="K55" s="73">
+      <c r="K55" s="70">
         <f>F39</f>
         <v>1</v>
       </c>
-      <c r="L55" s="74">
+      <c r="L55" s="71">
         <f>-D39*F40</f>
         <v>0</v>
       </c>
-      <c r="N55" s="61">
+      <c r="N55" s="58">
         <v>0</v>
       </c>
-      <c r="O55" s="62">
+      <c r="O55" s="59">
         <v>1</v>
       </c>
-      <c r="P55" s="63">
+      <c r="P55" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="I56" s="7"/>
-      <c r="J56" s="72">
+      <c r="J56" s="69">
         <f>-F39*D40</f>
         <v>0</v>
       </c>
-      <c r="K56" s="73">
+      <c r="K56" s="70">
         <f>D39</f>
         <v>0</v>
       </c>
-      <c r="L56" s="74">
+      <c r="L56" s="71">
         <f>F39*F40</f>
         <v>1</v>
       </c>
-      <c r="N56" s="61">
+      <c r="N56" s="58">
         <v>0</v>
       </c>
-      <c r="O56" s="62">
+      <c r="O56" s="59">
         <v>0</v>
       </c>
-      <c r="P56" s="63">
+      <c r="P56" s="60">
         <v>1</v>
       </c>
     </row>
@@ -19952,7 +19951,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="M57" s="14"/>
+      <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D58" s="6"/>
@@ -19968,15 +19967,15 @@
       <c r="F59" s="6"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="G62" s="72">
+      <c r="G62" s="69">
         <f t="array" ref="G62:I64">MMULT(F43:H45,N54:P56)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="73">
-        <v>-2.0203050891044214E-2</v>
-      </c>
-      <c r="I62" s="74">
-        <v>2.0203050891044214E-2</v>
+      <c r="H62" s="70">
+        <v>-20.203050891044214</v>
+      </c>
+      <c r="I62" s="71">
+        <v>20.20305089104421</v>
       </c>
       <c r="K62" s="7">
         <f>F43*J54+G43*K54+H43*L54</f>
@@ -19984,61 +19983,61 @@
       </c>
       <c r="L62" s="7">
         <f>F43*J55+G43*K55+H43*L55</f>
-        <v>-2.0203050891044214E-2</v>
+        <v>-20.203050891044214</v>
       </c>
       <c r="M62" s="7">
         <f>F43*J56+G43*K56+H43*L56</f>
-        <v>2.0203050891044214E-2</v>
+        <v>20.20305089104421</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C63" s="11"/>
+      <c r="C63" s="10"/>
       <c r="F63" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="72">
-        <v>1.7496355305594128E-2</v>
-      </c>
-      <c r="H63" s="73">
-        <v>1.0101525445522107E-2</v>
-      </c>
-      <c r="I63" s="74">
-        <v>2.0203050891044214E-2</v>
+      <c r="G63" s="69">
+        <v>17.496355305594129</v>
+      </c>
+      <c r="H63" s="70">
+        <v>10.101525445522107</v>
+      </c>
+      <c r="I63" s="71">
+        <v>20.20305089104421</v>
       </c>
       <c r="K63" s="7">
         <f>F44*J54+G44*K54+H44*L54</f>
-        <v>1.7496355305594128E-2</v>
+        <v>17.496355305594129</v>
       </c>
       <c r="L63" s="7">
         <f>F44*J55+G44*K55+H44*L55</f>
-        <v>1.0101525445522107E-2</v>
+        <v>10.101525445522107</v>
       </c>
       <c r="M63" s="7">
         <f>F44*J56+G44*K56+H43*L56</f>
-        <v>2.0203050891044214E-2</v>
+        <v>20.20305089104421</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="G64" s="72">
-        <v>-1.7496355305594128E-2</v>
-      </c>
-      <c r="H64" s="73">
-        <v>1.0101525445522107E-2</v>
-      </c>
-      <c r="I64" s="74">
-        <v>2.0203050891044214E-2</v>
+      <c r="G64" s="69">
+        <v>-17.496355305594129</v>
+      </c>
+      <c r="H64" s="70">
+        <v>10.101525445522107</v>
+      </c>
+      <c r="I64" s="71">
+        <v>20.20305089104421</v>
       </c>
       <c r="K64" s="7">
         <f>F45*J54+G45*K54+H45*L54</f>
-        <v>-1.7496355305594128E-2</v>
+        <v>-17.496355305594129</v>
       </c>
       <c r="L64" s="7">
         <f>F45*J55+G45*K55+H45*L55</f>
-        <v>1.0101525445522107E-2</v>
+        <v>10.101525445522107</v>
       </c>
       <c r="M64" s="7">
         <f>F45*J56+G45*K56+H43*L56</f>
-        <v>2.0203050891044214E-2</v>
+        <v>20.20305089104421</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
@@ -20048,19 +20047,19 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="8"/>
-      <c r="G67" s="61">
+      <c r="G67" s="58">
         <f t="array" ref="G67:I69">MMULT(G62:I64,F48:H50)</f>
-        <v>-2.0203050891044214E-2</v>
-      </c>
-      <c r="H67" s="62">
+        <v>-20.203050891044214</v>
+      </c>
+      <c r="H67" s="59">
         <v>0</v>
       </c>
-      <c r="I67" s="63">
-        <v>-1.8182745801939793</v>
+      <c r="I67" s="60">
+        <v>-1.8182745801939788</v>
       </c>
       <c r="K67" s="7">
         <f>G43*K55+H43*L55</f>
-        <v>-2.0203050891044214E-2</v>
+        <v>-20.203050891044214</v>
       </c>
       <c r="L67" s="7">
         <f>-(H43*L54)</f>
@@ -20068,91 +20067,91 @@
       </c>
       <c r="M67" s="7">
         <f>(G43*K56+H43*L56)*H50</f>
-        <v>-1.8182745801939793</v>
+        <v>-1.8182745801939788</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="61">
-        <v>1.0101525445522107E-2</v>
-      </c>
-      <c r="H68" s="62">
-        <v>-1.7496355305594128E-2</v>
-      </c>
-      <c r="I68" s="63">
-        <v>-1.8182745801939793</v>
+      <c r="G68" s="58">
+        <v>10.101525445522107</v>
+      </c>
+      <c r="H68" s="59">
+        <v>-17.496355305594129</v>
+      </c>
+      <c r="I68" s="60">
+        <v>-1.8182745801939788</v>
       </c>
       <c r="K68" s="7">
         <f>F44*J55+G44*K55+H43*L55</f>
-        <v>1.0101525445522107E-2</v>
+        <v>10.101525445522107</v>
       </c>
       <c r="L68" s="7">
         <f>-F44*J54-H43*L54</f>
-        <v>-1.7496355305594128E-2</v>
+        <v>-17.496355305594129</v>
       </c>
       <c r="M68" s="7">
         <f>(F44*J56+G44*K56+H43*L56)*H50</f>
-        <v>-1.8182745801939793</v>
+        <v>-1.8182745801939788</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G69" s="61">
-        <v>1.0101525445522107E-2</v>
-      </c>
-      <c r="H69" s="62">
-        <v>1.7496355305594128E-2</v>
-      </c>
-      <c r="I69" s="63">
-        <v>-1.8182745801939793</v>
+      <c r="G69" s="58">
+        <v>10.101525445522107</v>
+      </c>
+      <c r="H69" s="59">
+        <v>17.496355305594129</v>
+      </c>
+      <c r="I69" s="60">
+        <v>-1.8182745801939788</v>
       </c>
       <c r="K69" s="7">
         <f>-F44*J55+G44*K55+H43*L55</f>
-        <v>1.0101525445522107E-2</v>
+        <v>10.101525445522107</v>
       </c>
       <c r="L69" s="7">
         <f>F44*J54-H43*L54</f>
-        <v>1.7496355305594128E-2</v>
+        <v>17.496355305594129</v>
       </c>
       <c r="M69" s="7">
         <f>(-F44*J56+G44*K56+H43*L56)*H50</f>
-        <v>-1.8182745801939793</v>
+        <v>-1.8182745801939788</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="16"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="15"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G75" s="72">
+      <c r="G75" s="69">
         <f t="array" ref="G75:I77">MMULT(N48:P50,J54:L56)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="73">
+      <c r="H75" s="70">
         <v>1</v>
       </c>
-      <c r="I75" s="74">
+      <c r="I75" s="71">
         <v>0</v>
       </c>
       <c r="K75" s="7">
@@ -20169,13 +20168,13 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G76" s="72">
+      <c r="G76" s="69">
         <v>-1</v>
       </c>
-      <c r="H76" s="73">
+      <c r="H76" s="70">
         <v>0</v>
       </c>
-      <c r="I76" s="74">
+      <c r="I76" s="71">
         <v>0</v>
       </c>
       <c r="K76" s="7">
@@ -20192,14 +20191,14 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G77" s="72">
+      <c r="G77" s="69">
         <v>0</v>
       </c>
-      <c r="H77" s="73">
+      <c r="H77" s="70">
         <v>0</v>
       </c>
-      <c r="I77" s="74">
-        <v>-1.1111111111111112E-2</v>
+      <c r="I77" s="71">
+        <v>-11.111111111111111</v>
       </c>
       <c r="K77" s="7">
         <f>-J56/B12</f>
@@ -20211,7 +20210,7 @@
       </c>
       <c r="M77" s="7">
         <f>-L56/B12</f>
-        <v>-1.1111111111111112E-2</v>
+        <v>-11.111111111111111</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
@@ -20223,38 +20222,38 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G80" s="61">
+      <c r="G80" s="58">
         <f t="array" ref="G80:I82">MMULT(G75:I77,N43:P45)</f>
-        <v>-32.998316455372226</v>
-      </c>
-      <c r="H80" s="62">
-        <v>16.49915822768611</v>
-      </c>
-      <c r="I80" s="63">
-        <v>16.49915822768611</v>
+        <v>-3.2998316455372226E-2</v>
+      </c>
+      <c r="H80" s="59">
+        <v>1.6499158227686109E-2</v>
+      </c>
+      <c r="I80" s="60">
+        <v>1.6499158227686109E-2</v>
       </c>
       <c r="K80" s="7">
         <f>(K55*N44+L55*N45)</f>
-        <v>-32.998316455372226</v>
+        <v>-3.2998316455372226E-2</v>
       </c>
       <c r="L80" s="7">
         <f>(J55*O43+K55*O44+L55*N45)</f>
-        <v>16.49915822768611</v>
+        <v>1.6499158227686109E-2</v>
       </c>
       <c r="M80" s="7">
         <f>(-J55*O43+K55*O44+L55*N45)</f>
-        <v>16.49915822768611</v>
+        <v>1.6499158227686109E-2</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G81" s="61">
-        <v>-6.3454531257157525E-15</v>
-      </c>
-      <c r="H81" s="62">
-        <v>-28.577380332470412</v>
-      </c>
-      <c r="I81" s="63">
-        <v>28.577380332470412</v>
+      <c r="G81" s="58">
+        <v>-3.1727265628578762E-18</v>
+      </c>
+      <c r="H81" s="59">
+        <v>-2.8577380332470412E-2</v>
+      </c>
+      <c r="I81" s="60">
+        <v>2.8577380332470412E-2</v>
       </c>
       <c r="K81" s="7">
         <f>(-L54*N45)</f>
@@ -20262,34 +20261,34 @@
       </c>
       <c r="L81" s="7">
         <f>(-J54*O43-L54*N45)</f>
-        <v>-28.577380332470412</v>
+        <v>-2.8577380332470412E-2</v>
       </c>
       <c r="M81" s="7">
         <f>(J54*O43-L54*N45)</f>
-        <v>28.577380332470412</v>
+        <v>2.8577380332470412E-2</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G82" s="61">
-        <v>-0.18332398030762345</v>
-      </c>
-      <c r="H82" s="62">
-        <v>-0.18332398030762345</v>
-      </c>
-      <c r="I82" s="63">
-        <v>-0.18332398030762345</v>
+      <c r="G82" s="58">
+        <v>-0.18332398030762348</v>
+      </c>
+      <c r="H82" s="59">
+        <v>-0.18332398030762348</v>
+      </c>
+      <c r="I82" s="60">
+        <v>-0.18332398030762348</v>
       </c>
       <c r="K82" s="7">
         <f>(-K56*N44-L56*N45)</f>
-        <v>-16.49915822768611</v>
+        <v>-1.6499158227686113E-2</v>
       </c>
       <c r="L82" s="7">
         <f>(-J56*O43-K56*O44-L56*N45)</f>
-        <v>-16.49915822768611</v>
+        <v>-1.6499158227686113E-2</v>
       </c>
       <c r="M82" s="7">
         <f>(J56*O43-K56*O44-L56*N45)</f>
-        <v>-16.49915822768611</v>
+        <v>-1.6499158227686113E-2</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
@@ -20298,29 +20297,29 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D87" s="59">
+      <c r="D87" s="56">
         <f>B19*D90-B20*B90</f>
         <v>49.999923845664384</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D88" s="59">
+      <c r="D88" s="56">
         <f>B19*B90+B20*D90</f>
         <v>8.7266418294915438E-2</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="57">
+      <c r="B90" s="54">
         <f>SIN(RADIANS(B24))</f>
         <v>1.7453283658983088E-3</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="58">
+      <c r="D90" s="55">
         <f>COS(RADIANS(B24))</f>
         <v>0.99999847691328769</v>
       </c>
@@ -20449,105 +20448,105 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A3" s="67">
+      <c r="A3" s="64">
         <f>SIN(RADIANS(A2))</f>
         <v>0</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="64">
         <f>SIN(RADIANS(B2))</f>
         <v>6.9756473744125302E-2</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="64">
         <f t="shared" ref="C3:W3" si="1">SIN(RADIANS(C2))</f>
         <v>0.13917310096006544</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="64">
         <f t="shared" si="1"/>
         <v>0.20791169081775934</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="64">
         <f t="shared" si="1"/>
         <v>0.27563735581699916</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="64">
         <f t="shared" si="1"/>
         <v>0.34202014332566871</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="64">
         <f t="shared" si="1"/>
         <v>0.40673664307580021</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="64">
         <f t="shared" si="1"/>
         <v>0.46947156278589081</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="64">
         <f t="shared" si="1"/>
         <v>0.5299192642332049</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="64">
         <f t="shared" si="1"/>
         <v>0.58778525229247314</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="64">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="64">
         <f t="shared" si="1"/>
         <v>0.69465837045899725</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="64">
         <f t="shared" si="1"/>
         <v>0.74314482547739424</v>
       </c>
-      <c r="N3" s="67">
+      <c r="N3" s="64">
         <f t="shared" si="1"/>
         <v>0.78801075360672201</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="64">
         <f t="shared" si="1"/>
         <v>0.82903757255504174</v>
       </c>
-      <c r="P3" s="67">
+      <c r="P3" s="64">
         <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="Q3" s="67">
+      <c r="Q3" s="64">
         <f t="shared" si="1"/>
         <v>0.89879404629916704</v>
       </c>
-      <c r="R3" s="67">
+      <c r="R3" s="64">
         <f t="shared" si="1"/>
         <v>0.92718385456678742</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="64">
         <f t="shared" si="1"/>
         <v>0.95105651629515353</v>
       </c>
-      <c r="T3" s="67">
+      <c r="T3" s="64">
         <f t="shared" si="1"/>
         <v>0.97029572627599647</v>
       </c>
-      <c r="U3" s="67">
+      <c r="U3" s="64">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="V3" s="67">
+      <c r="V3" s="64">
         <f t="shared" si="1"/>
         <v>0.99452189536827329</v>
       </c>
-      <c r="W3" s="67">
+      <c r="W3" s="64">
         <f t="shared" si="1"/>
         <v>0.99939082701909576</v>
       </c>
-      <c r="X3" s="67">
+      <c r="X3" s="64">
         <f>X4/(2^14)</f>
         <v>1.0006103515625</v>
       </c>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -20669,7 +20668,7 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>H4</f>
         <v>7691</v>
       </c>
@@ -20678,7 +20677,7 @@
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>I4</f>
         <v>8682</v>
       </c>
@@ -20700,7 +20699,7 @@
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="63">
         <f>INT(B9+B11*((B10-B9))/(2^11))</f>
         <v>8186</v>
       </c>
@@ -20710,7 +20709,7 @@
         <f>INT(SIN(RADIANS(A7))*(2^14))</f>
         <v>8192</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="62">
         <f>(B12-B13)/B13</f>
         <v>-7.32421875E-4</v>
       </c>
@@ -20822,7 +20821,7 @@
         <f>INT(B29*(2^14))</f>
         <v>11272</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="61">
         <f>(D28-D29)/D29</f>
         <v>-4.6132008516678496E-3</v>
       </c>
@@ -21014,7 +21013,7 @@
         <f t="shared" ref="D2:D11" si="0">(B2-$H$6)*($G$7-$G$6)/($H$7-$H$6)+$G$6</f>
         <v>255</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="73">
         <f t="shared" ref="E2:E26" si="1">(D2-A2)/A2</f>
         <v>0</v>
       </c>
@@ -21025,7 +21024,7 @@
         <f>B27</f>
         <v>124</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <f t="shared" ref="I2:I7" si="2">H2/$B$2*255</f>
         <v>17.091891891891891</v>
       </c>
@@ -21053,7 +21052,7 @@
         <f t="shared" si="0"/>
         <v>251.13259668508289</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="73">
         <f t="shared" si="1"/>
         <v>2.5031006877889339E-2</v>
       </c>
@@ -21064,7 +21063,7 @@
         <f>B25</f>
         <v>684</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f t="shared" si="2"/>
         <v>94.281081081081084</v>
       </c>
@@ -21101,7 +21100,7 @@
         <f t="shared" si="0"/>
         <v>247.26519337016575</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="73">
         <f t="shared" si="1"/>
         <v>5.2192312213471266E-2</v>
       </c>
@@ -21112,7 +21111,7 @@
         <f>B22</f>
         <v>1186</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f t="shared" si="2"/>
         <v>163.47567567567569</v>
       </c>
@@ -21144,7 +21143,7 @@
         <f t="shared" si="0"/>
         <v>243.12154696132598</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="73">
         <f t="shared" si="1"/>
         <v>8.0540208717004333E-2</v>
       </c>
@@ -21155,7 +21154,7 @@
         <f>B18</f>
         <v>1475</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f t="shared" si="2"/>
         <v>203.31081081081081</v>
       </c>
@@ -21186,7 +21185,7 @@
         <f t="shared" si="0"/>
         <v>238.97790055248618</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="73">
         <f t="shared" si="1"/>
         <v>0.11152511884877291</v>
       </c>
@@ -21197,7 +21196,7 @@
         <f>B12</f>
         <v>1669</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f t="shared" si="2"/>
         <v>230.05135135135134</v>
       </c>
@@ -21229,7 +21228,7 @@
         <f t="shared" si="0"/>
         <v>215.49723756906076</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="73">
         <f t="shared" si="1"/>
         <v>5.1206036922247601E-2</v>
       </c>
@@ -21240,7 +21239,7 @@
         <f>B2</f>
         <v>1850</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
@@ -21271,7 +21270,7 @@
         <f t="shared" si="0"/>
         <v>192.01657458563537</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="73">
         <f t="shared" si="1"/>
         <v>-1.5299617509562215E-2</v>
       </c>
@@ -21303,7 +21302,7 @@
         <f t="shared" si="0"/>
         <v>184.00552486187846</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="73">
         <f t="shared" si="1"/>
         <v>-5.375541287143481E-3</v>
       </c>
@@ -21334,7 +21333,7 @@
         <f t="shared" si="0"/>
         <v>175.99447513812154</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="73">
         <f t="shared" si="1"/>
         <v>5.6827150749802517E-3</v>
       </c>
@@ -21366,7 +21365,7 @@
         <f t="shared" si="0"/>
         <v>165.49723756906079</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="73">
         <f t="shared" si="1"/>
         <v>3.0135610246108256E-3</v>
       </c>
@@ -21397,7 +21396,7 @@
         <f t="shared" ref="D12:D17" si="6">(B12-$H$5)*($G$6-$G$5)/($H$6-$H$5)+$G$5</f>
         <v>155</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21430,7 +21429,7 @@
         <f t="shared" si="6"/>
         <v>147.57731958762886</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="73">
         <f t="shared" si="1"/>
         <v>1.7774617845716302E-2</v>
       </c>
@@ -21462,7 +21461,7 @@
         <f t="shared" si="6"/>
         <v>140.15463917525773</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="73">
         <f t="shared" si="1"/>
         <v>3.8182512409316506E-2</v>
       </c>
@@ -21495,7 +21494,7 @@
         <f t="shared" si="6"/>
         <v>130.25773195876289</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="73">
         <f t="shared" si="1"/>
         <v>4.2061855670103114E-2</v>
       </c>
@@ -21527,7 +21526,7 @@
         <f t="shared" si="6"/>
         <v>120.36082474226804</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="73">
         <f t="shared" si="1"/>
         <v>4.661586732406988E-2</v>
       </c>
@@ -21560,7 +21559,7 @@
         <f t="shared" si="6"/>
         <v>107.68041237113403</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="73">
         <f t="shared" si="1"/>
         <v>2.5527736867943098E-2</v>
       </c>
@@ -21592,7 +21591,7 @@
         <f>(B18-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>95</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21624,7 +21623,7 @@
         <f>(B19-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>87.802768166089976</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="73">
         <f t="shared" si="1"/>
         <v>3.2973743130470308E-2</v>
       </c>
@@ -21656,7 +21655,7 @@
         <f>(B20-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>79.913494809688586</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="73">
         <f t="shared" si="1"/>
         <v>6.5513264129181153E-2</v>
       </c>
@@ -21677,7 +21676,7 @@
         <f>(B21-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>69.809688581314873</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="73">
         <f t="shared" si="1"/>
         <v>7.3995208943305746E-2</v>
       </c>
@@ -21698,7 +21697,7 @@
         <f>(B22-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>55</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21719,7 +21718,7 @@
         <f>(B23-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>48.127490039840637</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="73">
         <f t="shared" si="1"/>
         <v>6.9499778663125275E-2</v>
       </c>
@@ -21740,7 +21739,7 @@
         <f>(B24-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>38.625498007968126</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="73">
         <f t="shared" si="1"/>
         <v>0.10358565737051789</v>
       </c>
@@ -21760,7 +21759,7 @@
         <f>(B25-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>25</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21780,7 +21779,7 @@
         <f t="shared" ref="D26" si="8">(B26-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>14.098214285714285</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="73">
         <f t="shared" si="1"/>
         <v>-6.011904761904769E-2</v>
       </c>
@@ -21800,7 +21799,7 @@
         <f t="shared" ref="D27" si="9">(B27-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>10</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="73">
         <f>(D27-A27)/A27</f>
         <v>0</v>
       </c>

--- a/theory/Kinematics.xlsx
+++ b/theory/Kinematics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ondine\theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D718350-B824-4B75-85B1-EE6638B6E21D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB807D89-F78A-488C-9FC0-724FC74C43C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="18908" windowHeight="7808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Kinematix!$A$3:$Q$90</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -247,23 +247,23 @@
     <numFmt numFmtId="164" formatCode="0\ \°"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0\ &quot;°/s&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\ &quot;1/mm&quot;"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.00000\ &quot;°/s&quot;"/>
-    <numFmt numFmtId="173" formatCode="0\ &quot;mm&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00\ &quot;s&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.000\ \°"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000"/>
-    <numFmt numFmtId="179" formatCode="0.000\ &quot;mm&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="0.000000000000"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="0.00000\ &quot;1/s&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.000\ &quot;rev/s&quot;"/>
-    <numFmt numFmtId="187" formatCode="0.000\ &quot;m&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.000\ &quot;m/s&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0\ &quot;°/s&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\ &quot;1/mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.00000\ &quot;°/s&quot;"/>
+    <numFmt numFmtId="171" formatCode="0\ &quot;mm&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.000\ \°"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.000\ &quot;mm&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.000000000000"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00000\ &quot;1/s&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.000\ &quot;rev/s&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.000\ &quot;m&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.000\ &quot;m/s&quot;"/>
+    <numFmt numFmtId="185" formatCode="0.000\ &quot;s&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -462,25 +462,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -489,25 +489,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -515,38 +514,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -19290,8 +19290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19329,7 +19329,7 @@
     </row>
     <row r="12" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>0.09</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -19338,7 +19338,7 @@
     </row>
     <row r="13" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -19349,8 +19349,9 @@
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="47">
-        <v>0.01</v>
+      <c r="B14" s="78">
+        <f>0.004</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>19</v>
@@ -19426,20 +19427,20 @@
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="43"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="52">
         <f>B21*B14</f>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>31</v>
@@ -19448,7 +19449,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
-      <c r="B25" s="56">
+      <c r="B25" s="55">
         <v>48</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -19458,9 +19459,9 @@
     </row>
     <row r="26" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="23"/>
-      <c r="B26" s="57">
+      <c r="B26" s="56">
         <f>B19*B90+B20*D90</f>
-        <v>8.7266418294915438E-2</v>
+        <v>3.4906582204378964E-2</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>32</v>
@@ -19475,21 +19476,21 @@
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="18"/>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="47" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
-      <c r="N28" s="48" t="s">
+      <c r="N28" s="47" t="s">
         <v>11</v>
       </c>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A29" s="29"/>
-      <c r="B29" s="77">
+      <c r="B29" s="76">
         <v>1E-3</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -19499,26 +19500,26 @@
       <c r="G29" s="19"/>
       <c r="H29" s="20">
         <f>DEGREES(G67*B29+H67*B30+I67*RADIANS(B31))</f>
-        <v>-1.1575495493448507</v>
-      </c>
-      <c r="I29" s="74">
+        <v>-1.1775721972819395</v>
+      </c>
+      <c r="I29" s="73">
         <f>H29/360</f>
-        <v>-3.2154154148468072E-3</v>
+        <v>-3.2710338813387208E-3</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="22"/>
-      <c r="L29" s="72"/>
+      <c r="L29" s="71"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="78">
+      <c r="O29" s="77">
         <f>RADIANS(G80*H29+H80*H30+I80*H31)</f>
         <v>1.0000000000000002E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A30" s="29"/>
-      <c r="B30" s="77">
+      <c r="B30" s="76">
         <v>0</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -19529,19 +19530,19 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20">
         <f>DEGREES(G68*B29+H68*B30+I68*RADIANS(B31))</f>
-        <v>0.57877477467242533</v>
-      </c>
-      <c r="I30" s="74">
+        <v>0.55879301413224758</v>
+      </c>
+      <c r="I30" s="73">
         <f>H30/360</f>
-        <v>1.6077077074234036E-3</v>
+        <v>1.5522028170340211E-3</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="22"/>
-      <c r="L30" s="72"/>
+      <c r="L30" s="71"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="78">
+      <c r="O30" s="77">
         <f>RADIANS((G81*H29+H81*H30+I81*H31))</f>
         <v>6.0553272534872081E-20</v>
       </c>
@@ -19558,21 +19559,21 @@
       <c r="G31" s="23"/>
       <c r="H31" s="24">
         <f>DEGREES(G69*B29+H69*B30+I69*RADIANS(B31))</f>
-        <v>0.57877477467242533</v>
-      </c>
-      <c r="I31" s="75">
+        <v>0.55818233812917872</v>
+      </c>
+      <c r="I31" s="74">
         <f>H31/360</f>
-        <v>1.6077077074234036E-3</v>
+        <v>1.5505064948032742E-3</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="72"/>
+      <c r="L31" s="71"/>
       <c r="N31" s="23"/>
       <c r="O31" s="32">
         <f>(K82*H29+L82*H30+M82*H31)/B12</f>
-        <v>0</v>
+        <v>1.9274705288631189E-17</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.5">
@@ -19609,7 +19610,7 @@
         <f>B17+B19</f>
         <v>1050</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="22"/>
@@ -19627,7 +19628,7 @@
         <f>B18+B20</f>
         <v>1000</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="26"/>
@@ -19665,41 +19666,41 @@
     <row r="39" spans="1:17" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A39" s="29"/>
       <c r="B39" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="7">
         <f>SIN(RADIANS(B39))</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="7">
         <f>COS(RADIANS(B39))</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="30"/>
       <c r="B40" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="7">
         <f>SIN(RADIANS(B40))</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="7">
         <f>COS(RADIANS(B40))</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="14.65" x14ac:dyDescent="0.45">
@@ -19710,25 +19711,25 @@
         <v>48</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="F43" s="69">
+      <c r="F43" s="68">
         <v>0</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="69">
         <f>-1/(B13)*COS(RADIANS(B11))</f>
         <v>-20.203050891044214</v>
       </c>
-      <c r="H43" s="71">
+      <c r="H43" s="70">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
         <v>20.20305089104421</v>
       </c>
-      <c r="N43" s="69">
+      <c r="N43" s="68">
         <f t="array" ref="N43:P45">MINVERSE(F43:H45)</f>
         <v>3.1727265628578762E-18</v>
       </c>
-      <c r="O43" s="59">
+      <c r="O43" s="58">
         <v>2.8577380332470412E-2</v>
       </c>
-      <c r="P43" s="60">
+      <c r="P43" s="59">
         <v>-2.8577380332470412E-2</v>
       </c>
     </row>
@@ -19736,26 +19737,26 @@
       <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F44" s="68">
         <f>1/(B13)*SQRT(3)/2*COS(RADIANS(B11))</f>
         <v>17.496355305594129</v>
       </c>
-      <c r="G44" s="70">
+      <c r="G44" s="69">
         <f>1/(B13)*COS(RADIANS(B11))/2</f>
         <v>10.101525445522107</v>
       </c>
-      <c r="H44" s="71">
+      <c r="H44" s="70">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
         <v>20.20305089104421</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="N44" s="58">
+      <c r="N44" s="57">
         <v>-3.2998316455372226E-2</v>
       </c>
-      <c r="O44" s="59">
+      <c r="O44" s="58">
         <v>1.6499158227686109E-2</v>
       </c>
-      <c r="P44" s="60">
+      <c r="P44" s="59">
         <v>1.6499158227686109E-2</v>
       </c>
       <c r="Q44" t="s">
@@ -19763,46 +19764,46 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F45" s="69">
+      <c r="F45" s="68">
         <f>-1/(B13)*SQRT(3)/2*COS(RADIANS(B11))</f>
         <v>-17.496355305594129</v>
       </c>
-      <c r="G45" s="70">
+      <c r="G45" s="69">
         <f>1/(B13)*COS(RADIANS(B11))/2</f>
         <v>10.101525445522107</v>
       </c>
-      <c r="H45" s="71">
+      <c r="H45" s="70">
         <f>1/(B13)*SIN(RADIANS(B11))</f>
         <v>20.20305089104421</v>
       </c>
-      <c r="N45" s="58">
+      <c r="N45" s="57">
         <v>1.6499158227686113E-2</v>
       </c>
-      <c r="O45" s="59">
+      <c r="O45" s="58">
         <v>1.6499158227686113E-2</v>
       </c>
-      <c r="P45" s="60">
+      <c r="P45" s="59">
         <v>1.6499158227686113E-2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F48" s="65">
+      <c r="F48" s="64">
         <v>0</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="65">
         <v>-1</v>
       </c>
-      <c r="H48" s="67">
+      <c r="H48" s="66">
         <v>0</v>
       </c>
-      <c r="N48" s="58">
+      <c r="N48" s="57">
         <f t="array" ref="N48:P50">MINVERSE(F48:H50)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="59">
+      <c r="O48" s="58">
         <v>1</v>
       </c>
-      <c r="P48" s="60">
+      <c r="P48" s="59">
         <v>0</v>
       </c>
     </row>
@@ -19810,43 +19811,43 @@
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="64">
         <v>1</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="65">
         <v>0</v>
       </c>
-      <c r="H49" s="67">
+      <c r="H49" s="66">
         <v>0</v>
       </c>
-      <c r="N49" s="58">
+      <c r="N49" s="57">
         <v>-1</v>
       </c>
-      <c r="O49" s="59">
+      <c r="O49" s="58">
         <v>0</v>
       </c>
-      <c r="P49" s="60">
+      <c r="P49" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F50" s="65">
+      <c r="F50" s="64">
         <v>0</v>
       </c>
-      <c r="G50" s="66">
+      <c r="G50" s="65">
         <v>0</v>
       </c>
-      <c r="H50" s="67">
+      <c r="H50" s="66">
         <f>-B12</f>
         <v>-0.09</v>
       </c>
-      <c r="N50" s="58">
+      <c r="N50" s="57">
         <v>0</v>
       </c>
-      <c r="O50" s="59">
+      <c r="O50" s="58">
         <v>0</v>
       </c>
-      <c r="P50" s="60">
+      <c r="P50" s="59">
         <v>-11.111111111111111</v>
       </c>
     </row>
@@ -19872,76 +19873,76 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="J54" s="69">
+      <c r="J54" s="68">
         <f>F40</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="70">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="K54" s="69">
         <v>0</v>
       </c>
-      <c r="L54" s="71">
+      <c r="L54" s="70">
         <f>D40</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="58">
+        <v>1.7452406437283512E-2</v>
+      </c>
+      <c r="N54" s="57">
         <f t="array" ref="N54:P56">TRANSPOSE(J54:L56)</f>
-        <v>1</v>
-      </c>
-      <c r="O54" s="59">
-        <v>0</v>
-      </c>
-      <c r="P54" s="60">
-        <v>0</v>
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="O54" s="58">
+        <v>3.0458649045213493E-4</v>
+      </c>
+      <c r="P54" s="59">
+        <v>-1.7449748351250485E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="J55" s="69">
+      <c r="J55" s="68">
         <f>D39*D40</f>
+        <v>3.0458649045213493E-4</v>
+      </c>
+      <c r="K55" s="69">
+        <f>F39</f>
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="L55" s="70">
+        <f>-D39*F40</f>
+        <v>-1.7449748351250485E-2</v>
+      </c>
+      <c r="N55" s="57">
         <v>0</v>
       </c>
-      <c r="K55" s="70">
-        <f>F39</f>
-        <v>1</v>
-      </c>
-      <c r="L55" s="71">
-        <f>-D39*F40</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="58">
-        <v>0</v>
-      </c>
-      <c r="O55" s="59">
-        <v>1</v>
-      </c>
-      <c r="P55" s="60">
-        <v>0</v>
+      <c r="O55" s="58">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="P55" s="59">
+        <v>1.7452406437283512E-2</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="I56" s="7"/>
-      <c r="J56" s="69">
+      <c r="J56" s="68">
         <f>-F39*D40</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="70">
+        <v>-1.7449748351250485E-2</v>
+      </c>
+      <c r="K56" s="69">
         <f>D39</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="71">
+        <v>1.7452406437283512E-2</v>
+      </c>
+      <c r="L56" s="70">
         <f>F39*F40</f>
-        <v>1</v>
-      </c>
-      <c r="N56" s="58">
-        <v>0</v>
-      </c>
-      <c r="O56" s="59">
-        <v>0</v>
-      </c>
-      <c r="P56" s="60">
-        <v>1</v>
+        <v>0.99969541350954794</v>
+      </c>
+      <c r="N56" s="57">
+        <v>1.7452406437283512E-2</v>
+      </c>
+      <c r="O56" s="58">
+        <v>-1.7449748351250485E-2</v>
+      </c>
+      <c r="P56" s="59">
+        <v>0.99969541350954794</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
@@ -19967,27 +19968,27 @@
       <c r="F59" s="6"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="G62" s="69">
+      <c r="G62" s="68">
         <f t="array" ref="G62:I64">MMULT(F43:H45,N54:P56)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="70">
-        <v>-20.203050891044214</v>
-      </c>
-      <c r="I62" s="71">
-        <v>20.20305089104421</v>
+        <v>0.35259185542362637</v>
+      </c>
+      <c r="H62" s="69">
+        <v>-20.552512022514065</v>
+      </c>
+      <c r="I62" s="70">
+        <v>19.844305459253256</v>
       </c>
       <c r="K62" s="7">
         <f>F43*J54+G43*K54+H43*L54</f>
-        <v>0</v>
+        <v>0.35259185542362637</v>
       </c>
       <c r="L62" s="7">
         <f>F43*J55+G43*K55+H43*L55</f>
-        <v>-20.203050891044214</v>
+        <v>-20.552512022514065</v>
       </c>
       <c r="M62" s="7">
         <f>F43*J56+G43*K56+H43*L56</f>
-        <v>20.20305089104421</v>
+        <v>19.844305459253256</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
@@ -19995,49 +19996,49 @@
       <c r="F63" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="69">
-        <v>17.496355305594129</v>
-      </c>
-      <c r="H63" s="70">
-        <v>10.101525445522107</v>
-      </c>
-      <c r="I63" s="71">
-        <v>20.20305089104421</v>
+      <c r="G63" s="68">
+        <v>17.846282381359213</v>
+      </c>
+      <c r="H63" s="69">
+        <v>9.7527779337509237</v>
+      </c>
+      <c r="I63" s="70">
+        <v>20.067886245242011</v>
       </c>
       <c r="K63" s="7">
         <f>F44*J54+G44*K54+H44*L54</f>
-        <v>17.496355305594129</v>
+        <v>17.846282381359213</v>
       </c>
       <c r="L63" s="7">
         <f>F44*J55+G44*K55+H44*L55</f>
-        <v>10.101525445522107</v>
+        <v>9.7527779337509237</v>
       </c>
       <c r="M63" s="7">
         <f>F44*J56+G44*K56+H43*L56</f>
-        <v>20.20305089104421</v>
+        <v>20.067886245242011</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="G64" s="69">
-        <v>-17.496355305594129</v>
-      </c>
-      <c r="H64" s="70">
-        <v>10.101525445522107</v>
-      </c>
-      <c r="I64" s="71">
-        <v>20.20305089104421</v>
+      <c r="G64" s="68">
+        <v>-17.141098670511962</v>
+      </c>
+      <c r="H64" s="69">
+        <v>9.7421196268344552</v>
+      </c>
+      <c r="I64" s="70">
+        <v>20.678500239535378</v>
       </c>
       <c r="K64" s="7">
         <f>F45*J54+G45*K54+H45*L54</f>
-        <v>-17.496355305594129</v>
+        <v>-17.141098670511962</v>
       </c>
       <c r="L64" s="7">
         <f>F45*J55+G45*K55+H45*L55</f>
-        <v>10.101525445522107</v>
+        <v>9.7421196268344552</v>
       </c>
       <c r="M64" s="7">
         <f>F45*J56+G45*K56+H43*L56</f>
-        <v>20.20305089104421</v>
+        <v>20.678500239535378</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
@@ -20047,76 +20048,76 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="8"/>
-      <c r="G67" s="58">
+      <c r="G67" s="57">
         <f t="array" ref="G67:I69">MMULT(G62:I64,F48:H50)</f>
-        <v>-20.203050891044214</v>
-      </c>
-      <c r="H67" s="59">
-        <v>0</v>
-      </c>
-      <c r="I67" s="60">
-        <v>-1.8182745801939788</v>
+        <v>-20.552512022514065</v>
+      </c>
+      <c r="H67" s="58">
+        <v>-0.35259185542362637</v>
+      </c>
+      <c r="I67" s="59">
+        <v>-1.7859874913327929</v>
       </c>
       <c r="K67" s="7">
         <f>G43*K55+H43*L55</f>
-        <v>-20.203050891044214</v>
+        <v>-20.552512022514065</v>
       </c>
       <c r="L67" s="7">
         <f>-(H43*L54)</f>
-        <v>0</v>
+        <v>-0.35259185542362637</v>
       </c>
       <c r="M67" s="7">
         <f>(G43*K56+H43*L56)*H50</f>
-        <v>-1.8182745801939788</v>
+        <v>-1.7859874913327929</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="58">
-        <v>10.101525445522107</v>
-      </c>
-      <c r="H68" s="59">
-        <v>-17.496355305594129</v>
-      </c>
-      <c r="I68" s="60">
-        <v>-1.8182745801939788</v>
+      <c r="G68" s="57">
+        <v>9.7527779337509237</v>
+      </c>
+      <c r="H68" s="58">
+        <v>-17.846282381359213</v>
+      </c>
+      <c r="I68" s="59">
+        <v>-1.806109762071781</v>
       </c>
       <c r="K68" s="7">
         <f>F44*J55+G44*K55+H43*L55</f>
-        <v>10.101525445522107</v>
+        <v>9.7527779337509237</v>
       </c>
       <c r="L68" s="7">
         <f>-F44*J54-H43*L54</f>
-        <v>-17.496355305594129</v>
+        <v>-17.846282381359213</v>
       </c>
       <c r="M68" s="7">
         <f>(F44*J56+G44*K56+H43*L56)*H50</f>
-        <v>-1.8182745801939788</v>
+        <v>-1.806109762071781</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G69" s="58">
-        <v>10.101525445522107</v>
-      </c>
-      <c r="H69" s="59">
-        <v>17.496355305594129</v>
-      </c>
-      <c r="I69" s="60">
-        <v>-1.8182745801939788</v>
+      <c r="G69" s="57">
+        <v>9.7421196268344552</v>
+      </c>
+      <c r="H69" s="58">
+        <v>17.141098670511962</v>
+      </c>
+      <c r="I69" s="59">
+        <v>-1.8610650215581839</v>
       </c>
       <c r="K69" s="7">
         <f>-F44*J55+G44*K55+H43*L55</f>
-        <v>10.101525445522107</v>
+        <v>9.7421196268344552</v>
       </c>
       <c r="L69" s="7">
         <f>F44*J54-H43*L54</f>
-        <v>17.496355305594129</v>
+        <v>17.141098670511962</v>
       </c>
       <c r="M69" s="7">
         <f>(-F44*J56+G44*K56+H43*L56)*H50</f>
-        <v>-1.8182745801939788</v>
+        <v>-1.8610650215581839</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
@@ -20124,7 +20125,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="K71" s="15"/>
-      <c r="L71" s="68"/>
+      <c r="L71" s="67"/>
       <c r="M71" s="15"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
@@ -20144,42 +20145,42 @@
       <c r="M73" s="15"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G75" s="69">
+      <c r="G75" s="68">
         <f t="array" ref="G75:I77">MMULT(N48:P50,J54:L56)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="70">
-        <v>1</v>
-      </c>
-      <c r="I75" s="71">
-        <v>0</v>
+        <v>3.0458649045213493E-4</v>
+      </c>
+      <c r="H75" s="69">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="I75" s="70">
+        <v>-1.7449748351250485E-2</v>
       </c>
       <c r="K75" s="7">
         <f>J55</f>
-        <v>0</v>
+        <v>3.0458649045213493E-4</v>
       </c>
       <c r="L75" s="7">
         <f>K55</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="M75" s="7">
         <f>L55</f>
-        <v>0</v>
+        <v>-1.7449748351250485E-2</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G76" s="69">
-        <v>-1</v>
-      </c>
-      <c r="H76" s="70">
+      <c r="G76" s="68">
+        <v>-0.99984769515639127</v>
+      </c>
+      <c r="H76" s="69">
         <v>0</v>
       </c>
-      <c r="I76" s="71">
-        <v>0</v>
+      <c r="I76" s="70">
+        <v>-1.7452406437283512E-2</v>
       </c>
       <c r="K76" s="7">
         <f>-J54</f>
-        <v>-1</v>
+        <v>-0.99984769515639127</v>
       </c>
       <c r="L76" s="7">
         <f>-F52*J62-H51*L62</f>
@@ -20187,30 +20188,30 @@
       </c>
       <c r="M76" s="7">
         <f>-L54</f>
-        <v>0</v>
+        <v>-1.7452406437283512E-2</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G77" s="69">
-        <v>0</v>
-      </c>
-      <c r="H77" s="70">
-        <v>0</v>
-      </c>
-      <c r="I77" s="71">
-        <v>-11.111111111111111</v>
+      <c r="G77" s="68">
+        <v>0.19388609279167204</v>
+      </c>
+      <c r="H77" s="69">
+        <v>-0.19391562708092791</v>
+      </c>
+      <c r="I77" s="70">
+        <v>-11.107726816772754</v>
       </c>
       <c r="K77" s="7">
         <f>-J56/B12</f>
-        <v>0</v>
+        <v>0.19388609279167207</v>
       </c>
       <c r="L77" s="7">
         <f>-K56/B12</f>
-        <v>0</v>
+        <v>-0.19391562708092791</v>
       </c>
       <c r="M77" s="7">
         <f>-L56/B12</f>
-        <v>-11.111111111111111</v>
+        <v>-11.107726816772756</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
@@ -20222,73 +20223,73 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G80" s="58">
+      <c r="G80" s="57">
         <f t="array" ref="G80:I82">MMULT(G75:I77,N43:P45)</f>
-        <v>-3.2998316455372226E-2</v>
-      </c>
-      <c r="H80" s="59">
-        <v>1.6499158227686109E-2</v>
-      </c>
-      <c r="I80" s="60">
-        <v>1.6499158227686109E-2</v>
+        <v>-3.3281196811025725E-2</v>
+      </c>
+      <c r="H80" s="58">
+        <v>1.6217443450873763E-2</v>
+      </c>
+      <c r="I80" s="59">
+        <v>1.6200034882910195E-2</v>
       </c>
       <c r="K80" s="7">
         <f>(K55*N44+L55*N45)</f>
-        <v>-3.2998316455372226E-2</v>
+        <v>-3.3281196811025725E-2</v>
       </c>
       <c r="L80" s="7">
         <f>(J55*O43+K55*O44+L55*N45)</f>
-        <v>1.6499158227686109E-2</v>
+        <v>1.6217443450873763E-2</v>
       </c>
       <c r="M80" s="7">
         <f>(-J55*O43+K55*O44+L55*N45)</f>
-        <v>1.6499158227686109E-2</v>
+        <v>1.6200034882910195E-2</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G81" s="58">
-        <v>-3.1727265628578762E-18</v>
-      </c>
-      <c r="H81" s="59">
-        <v>-2.8577380332470412E-2</v>
-      </c>
-      <c r="I81" s="60">
-        <v>2.8577380332470412E-2</v>
+      <c r="G81" s="57">
+        <v>-2.8795001526263152E-4</v>
+      </c>
+      <c r="H81" s="58">
+        <v>-2.8860977874290754E-2</v>
+      </c>
+      <c r="I81" s="59">
+        <v>2.8285077843765501E-2</v>
       </c>
       <c r="K81" s="7">
         <f>(-L54*N45)</f>
-        <v>0</v>
+        <v>-2.8795001526262833E-4</v>
       </c>
       <c r="L81" s="7">
         <f>(-J54*O43-L54*N45)</f>
-        <v>-2.8577380332470412E-2</v>
+        <v>-2.8860977874290754E-2</v>
       </c>
       <c r="M81" s="7">
         <f>(J54*O43-L54*N45)</f>
-        <v>2.8577380332470412E-2</v>
+        <v>2.8285077843765501E-2</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G82" s="58">
-        <v>-0.18332398030762348</v>
-      </c>
-      <c r="H82" s="59">
-        <v>-0.18332398030762348</v>
-      </c>
-      <c r="I82" s="60">
-        <v>-0.18332398030762348</v>
+      <c r="G82" s="57">
+        <v>-0.17686925307178747</v>
+      </c>
+      <c r="H82" s="58">
+        <v>-0.18092683029899082</v>
+      </c>
+      <c r="I82" s="59">
+        <v>-0.19200834352875934</v>
       </c>
       <c r="K82" s="7">
         <f>(-K56*N44-L56*N45)</f>
-        <v>-1.6499158227686113E-2</v>
+        <v>-1.5918232776460872E-2</v>
       </c>
       <c r="L82" s="7">
         <f>(-J56*O43-K56*O44-L56*N45)</f>
-        <v>-1.6499158227686113E-2</v>
+        <v>-1.6283414726909175E-2</v>
       </c>
       <c r="M82" s="7">
         <f>(J56*O43-K56*O44-L56*N45)</f>
-        <v>-1.6499158227686113E-2</v>
+        <v>-1.728075091758834E-2</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
@@ -20297,31 +20298,31 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D87" s="56">
+      <c r="D87" s="55">
         <f>B19*D90-B20*B90</f>
-        <v>49.999923845664384</v>
+        <v>49.999987815303705</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D88" s="56">
+      <c r="D88" s="55">
         <f>B19*B90+B20*D90</f>
-        <v>8.7266418294915438E-2</v>
+        <v>3.4906582204378964E-2</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="54">
+      <c r="B90" s="53">
         <f>SIN(RADIANS(B24))</f>
-        <v>1.7453283658983088E-3</v>
+        <v>6.9813164408757923E-4</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="55">
+      <c r="D90" s="54">
         <f>COS(RADIANS(B24))</f>
-        <v>0.99999847691328769</v>
+        <v>0.99999975630607407</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
@@ -20448,105 +20449,105 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A3" s="64">
+      <c r="A3" s="63">
         <f>SIN(RADIANS(A2))</f>
         <v>0</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="63">
         <f>SIN(RADIANS(B2))</f>
         <v>6.9756473744125302E-2</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <f t="shared" ref="C3:W3" si="1">SIN(RADIANS(C2))</f>
         <v>0.13917310096006544</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="63">
         <f t="shared" si="1"/>
         <v>0.20791169081775934</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="63">
         <f t="shared" si="1"/>
         <v>0.27563735581699916</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="63">
         <f t="shared" si="1"/>
         <v>0.34202014332566871</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="63">
         <f t="shared" si="1"/>
         <v>0.40673664307580021</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="63">
         <f t="shared" si="1"/>
         <v>0.46947156278589081</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="63">
         <f t="shared" si="1"/>
         <v>0.5299192642332049</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="63">
         <f t="shared" si="1"/>
         <v>0.58778525229247314</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="63">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="63">
         <f t="shared" si="1"/>
         <v>0.69465837045899725</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="63">
         <f t="shared" si="1"/>
         <v>0.74314482547739424</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="63">
         <f t="shared" si="1"/>
         <v>0.78801075360672201</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="63">
         <f t="shared" si="1"/>
         <v>0.82903757255504174</v>
       </c>
-      <c r="P3" s="64">
+      <c r="P3" s="63">
         <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="Q3" s="64">
+      <c r="Q3" s="63">
         <f t="shared" si="1"/>
         <v>0.89879404629916704</v>
       </c>
-      <c r="R3" s="64">
+      <c r="R3" s="63">
         <f t="shared" si="1"/>
         <v>0.92718385456678742</v>
       </c>
-      <c r="S3" s="64">
+      <c r="S3" s="63">
         <f t="shared" si="1"/>
         <v>0.95105651629515353</v>
       </c>
-      <c r="T3" s="64">
+      <c r="T3" s="63">
         <f t="shared" si="1"/>
         <v>0.97029572627599647</v>
       </c>
-      <c r="U3" s="64">
+      <c r="U3" s="63">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="V3" s="64">
+      <c r="V3" s="63">
         <f t="shared" si="1"/>
         <v>0.99452189536827329</v>
       </c>
-      <c r="W3" s="64">
+      <c r="W3" s="63">
         <f t="shared" si="1"/>
         <v>0.99939082701909576</v>
       </c>
-      <c r="X3" s="64">
+      <c r="X3" s="63">
         <f>X4/(2^14)</f>
         <v>1.0006103515625</v>
       </c>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -20699,7 +20700,7 @@
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="62">
         <f>INT(B9+B11*((B10-B9))/(2^11))</f>
         <v>8186</v>
       </c>
@@ -20709,7 +20710,7 @@
         <f>INT(SIN(RADIANS(A7))*(2^14))</f>
         <v>8192</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="61">
         <f>(B12-B13)/B13</f>
         <v>-7.32421875E-4</v>
       </c>
@@ -20821,7 +20822,7 @@
         <f>INT(B29*(2^14))</f>
         <v>11272</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="60">
         <f>(D28-D29)/D29</f>
         <v>-4.6132008516678496E-3</v>
       </c>
@@ -21013,7 +21014,7 @@
         <f t="shared" ref="D2:D11" si="0">(B2-$H$6)*($G$7-$G$6)/($H$7-$H$6)+$G$6</f>
         <v>255</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="72">
         <f t="shared" ref="E2:E26" si="1">(D2-A2)/A2</f>
         <v>0</v>
       </c>
@@ -21052,7 +21053,7 @@
         <f t="shared" si="0"/>
         <v>251.13259668508289</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="72">
         <f t="shared" si="1"/>
         <v>2.5031006877889339E-2</v>
       </c>
@@ -21100,7 +21101,7 @@
         <f t="shared" si="0"/>
         <v>247.26519337016575</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="72">
         <f t="shared" si="1"/>
         <v>5.2192312213471266E-2</v>
       </c>
@@ -21143,7 +21144,7 @@
         <f t="shared" si="0"/>
         <v>243.12154696132598</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="72">
         <f t="shared" si="1"/>
         <v>8.0540208717004333E-2</v>
       </c>
@@ -21185,7 +21186,7 @@
         <f t="shared" si="0"/>
         <v>238.97790055248618</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="72">
         <f t="shared" si="1"/>
         <v>0.11152511884877291</v>
       </c>
@@ -21228,7 +21229,7 @@
         <f t="shared" si="0"/>
         <v>215.49723756906076</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="72">
         <f t="shared" si="1"/>
         <v>5.1206036922247601E-2</v>
       </c>
@@ -21270,7 +21271,7 @@
         <f t="shared" si="0"/>
         <v>192.01657458563537</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="72">
         <f t="shared" si="1"/>
         <v>-1.5299617509562215E-2</v>
       </c>
@@ -21302,7 +21303,7 @@
         <f t="shared" si="0"/>
         <v>184.00552486187846</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <f t="shared" si="1"/>
         <v>-5.375541287143481E-3</v>
       </c>
@@ -21333,7 +21334,7 @@
         <f t="shared" si="0"/>
         <v>175.99447513812154</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="72">
         <f t="shared" si="1"/>
         <v>5.6827150749802517E-3</v>
       </c>
@@ -21365,7 +21366,7 @@
         <f t="shared" si="0"/>
         <v>165.49723756906079</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="72">
         <f t="shared" si="1"/>
         <v>3.0135610246108256E-3</v>
       </c>
@@ -21396,7 +21397,7 @@
         <f t="shared" ref="D12:D17" si="6">(B12-$H$5)*($G$6-$G$5)/($H$6-$H$5)+$G$5</f>
         <v>155</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21429,7 +21430,7 @@
         <f t="shared" si="6"/>
         <v>147.57731958762886</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="72">
         <f t="shared" si="1"/>
         <v>1.7774617845716302E-2</v>
       </c>
@@ -21461,7 +21462,7 @@
         <f t="shared" si="6"/>
         <v>140.15463917525773</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="72">
         <f t="shared" si="1"/>
         <v>3.8182512409316506E-2</v>
       </c>
@@ -21494,7 +21495,7 @@
         <f t="shared" si="6"/>
         <v>130.25773195876289</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="72">
         <f t="shared" si="1"/>
         <v>4.2061855670103114E-2</v>
       </c>
@@ -21526,7 +21527,7 @@
         <f t="shared" si="6"/>
         <v>120.36082474226804</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="72">
         <f t="shared" si="1"/>
         <v>4.661586732406988E-2</v>
       </c>
@@ -21559,7 +21560,7 @@
         <f t="shared" si="6"/>
         <v>107.68041237113403</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="72">
         <f t="shared" si="1"/>
         <v>2.5527736867943098E-2</v>
       </c>
@@ -21591,7 +21592,7 @@
         <f>(B18-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>95</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21623,7 +21624,7 @@
         <f>(B19-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>87.802768166089976</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="72">
         <f t="shared" si="1"/>
         <v>3.2973743130470308E-2</v>
       </c>
@@ -21655,7 +21656,7 @@
         <f>(B20-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>79.913494809688586</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <f t="shared" si="1"/>
         <v>6.5513264129181153E-2</v>
       </c>
@@ -21676,7 +21677,7 @@
         <f>(B21-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>69.809688581314873</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="72">
         <f t="shared" si="1"/>
         <v>7.3995208943305746E-2</v>
       </c>
@@ -21697,7 +21698,7 @@
         <f>(B22-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>55</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21718,7 +21719,7 @@
         <f>(B23-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>48.127490039840637</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="72">
         <f t="shared" si="1"/>
         <v>6.9499778663125275E-2</v>
       </c>
@@ -21739,7 +21740,7 @@
         <f>(B24-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>38.625498007968126</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="72">
         <f t="shared" si="1"/>
         <v>0.10358565737051789</v>
       </c>
@@ -21759,7 +21760,7 @@
         <f>(B25-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>25</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21779,7 +21780,7 @@
         <f t="shared" ref="D26" si="8">(B26-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>14.098214285714285</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="72">
         <f t="shared" si="1"/>
         <v>-6.011904761904769E-2</v>
       </c>
@@ -21799,7 +21800,7 @@
         <f t="shared" ref="D27" si="9">(B27-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>10</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="72">
         <f>(D27-A27)/A27</f>
         <v>0</v>
       </c>
